--- a/param.xlsx
+++ b/param.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>goal_x 136  55  
 scout_gazebo_sim  x</t>
@@ -49,9 +49,18 @@
     <t>2_cross</t>
   </si>
   <si>
+    <t>ssc_pred  增加认为扰动</t>
+  </si>
+  <si>
     <t>collision 未筛选</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collision </t>
+  </si>
+  <si>
     <t>Timeout</t>
   </si>
   <si>
@@ -70,13 +79,19 @@
     <t>a3d_2_toward</t>
   </si>
   <si>
+    <t>0 1 3 4</t>
+  </si>
+  <si>
     <t>cbf_2_toward</t>
   </si>
   <si>
+    <t>15 17</t>
+  </si>
+  <si>
     <t>cp0_2_toward</t>
   </si>
   <si>
-    <t>没有考虑预测错误，贴着走碰撞率高，若侥幸从中间穿过，时间短且速度方差小</t>
+    <t>1 8 12 15 19 21 25 34 49</t>
   </si>
   <si>
     <t>a3d_2_cross</t>
@@ -98,6 +113,27 @@
   </si>
   <si>
     <t>cp0_5</t>
+  </si>
+  <si>
+    <t>3 10</t>
+  </si>
+  <si>
+    <t>a3d_10</t>
+  </si>
+  <si>
+    <t>cbf_10</t>
+  </si>
+  <si>
+    <t>cp0_10</t>
+  </si>
+  <si>
+    <t>9 25 27</t>
+  </si>
+  <si>
+    <t>采用cp使得规划更加安全，碰撞更少，虽然会牺牲一定的效率，由于没有考虑预测错误，贴着走碰撞率高，若侥幸从中间穿过，时间短且速度方差小</t>
+  </si>
+  <si>
+    <t>与cbf方法相比，碰撞次数更少，安全距离增加，时间更短，cbf方法在行人数量增多时常常解算失败，采用前面时刻的计算结果导致碰撞</t>
   </si>
 </sst>
 </file>
@@ -105,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,7 +156,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,135 +298,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,43 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,133 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,19 +505,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +551,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -540,26 +580,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,153 +604,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1045,22 +1084,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8256880733945" defaultRowHeight="15.35" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8256880733945" defaultRowHeight="15.35" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="13.7614678899083" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.4" spans="2:7">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1072,7 +1111,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1095,7 +1134,7 @@
       <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1118,7 +1157,7 @@
       <c r="G3">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -1138,6 +1177,29 @@
       </c>
       <c r="G4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1152,248 +1214,389 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8256880733945" defaultRowHeight="15.35"/>
   <cols>
-    <col min="5" max="5" width="10.0688073394495"/>
-    <col min="6" max="6" width="11.1376146788991"/>
-    <col min="7" max="7" width="10.0688073394495"/>
+    <col min="3" max="3" width="5.18348623853211" customWidth="1"/>
+    <col min="4" max="4" width="6.31651376146789" customWidth="1"/>
+    <col min="5" max="5" width="5.30275229357798" customWidth="1"/>
+    <col min="6" max="6" width="6.51834862385321" customWidth="1"/>
+    <col min="7" max="7" width="7.73394495412844" customWidth="1"/>
+    <col min="8" max="8" width="7.37155963302752" customWidth="1"/>
+    <col min="9" max="9" width="9.59633027522936" customWidth="1"/>
+    <col min="10" max="10" width="9.91743119266055" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>15.2239</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.399337</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.00574059</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.428593</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>16.7303</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.0479991</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.406615</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>53</v>
-      </c>
-      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>13.3736</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.109436</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.00528022</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.08263</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.3007</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.738937</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.004638</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.0553856</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>15.6019</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.335234</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.180198</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>14.4145</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.568052</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.00479258</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.062355</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>13.0808</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.514518</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.0034473</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.151601</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>46</v>
-      </c>
-      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>15.427</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.0625759</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.506093</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>12.2881</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.298887</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.002357</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.113878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>18.5326</v>
+      </c>
+      <c r="G13">
+        <v>0.372069</v>
+      </c>
+      <c r="H13">
+        <v>0.00396797</v>
+      </c>
+      <c r="I13">
+        <v>0.400551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>17.3839</v>
+      </c>
+      <c r="G14">
+        <v>0.0323398</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.367237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>13.901</v>
+      </c>
+      <c r="G15">
+        <v>0.0544491</v>
+      </c>
+      <c r="H15">
+        <v>0.00179214</v>
+      </c>
+      <c r="I15">
+        <v>0.116891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/param.xlsx
+++ b/param.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17182" windowHeight="8437" activeTab="1"/>
+    <workbookView windowWidth="17182" windowHeight="8437"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,10 +169,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +185,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -192,6 +253,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -201,32 +269,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,27 +284,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,35 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,6 +531,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,39 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,145 +604,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1086,8 +1086,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8256880733945" defaultRowHeight="15.35" outlineLevelRow="4"/>
@@ -1216,7 +1216,7 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
